--- a/work_flow/招退工备案的办理材料.xlsx
+++ b/work_flow/招退工备案的办理材料.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="39">
   <si>
     <t>question</t>
   </si>
@@ -49,8 +49,7 @@
     <t>外地户口</t>
   </si>
   <si>
-    <t xml:space="preserve">1.逾期
-2.未逾期（自退工之日起30天内）
+    <t xml:space="preserve">请问您想咨询的是以下哪种情形：
 </t>
   </si>
   <si>
@@ -64,14 +63,6 @@
   </si>
   <si>
     <t>数字证书（法人一证通）；登录“上海市人力资源和社会保障网上自助经办平台”（网址：https://zzjb.12333sh.gov.cn/zzjbdl/jsp/login.jsp）“退工登记——退工登记办理”任务栏进行信息填报</t>
-  </si>
-  <si>
-    <t>未逾期</t>
-  </si>
-  <si>
-    <t>1.逾期（自签订劳动合同超过60天）
-2.未办理过个人信息初始化登记手续
-3.未逾期且已办理过个人信息初始化登记手续</t>
   </si>
   <si>
     <t>招工</t>
@@ -87,19 +78,7 @@
     <t>未办理过个人信息初始化登记手续</t>
   </si>
   <si>
-    <t>未逾期且已办理过个人信息初始化登记手续</t>
-  </si>
-  <si>
     <t>本地户口</t>
-  </si>
-  <si>
-    <t>1.个体工商户
-2.逾期
-3.员工姓名存在生僻字
-4.退档
-5.变更退工时间
-6.未逾期（自退工之日起30天内）
-7.恢复用工</t>
   </si>
   <si>
     <t>上海市单位退工证明（一式四联） 原件x1</t>
@@ -125,17 +104,6 @@
   </si>
   <si>
     <t>恢复用工</t>
-  </si>
-  <si>
-    <t>1.未逾期（自签订劳动合同60天内）
-2.逾期超过一年
-3.变更用工形式
-4.个体工商户
-5.逾期不满一年
-6.变更招工时间
-7.员工姓名存在生僻字
-8.变更岗位
-9.删除招工记录</t>
   </si>
   <si>
     <t xml:space="preserve">1、上海市单位招用从业人员备案名册（一式三联）
@@ -207,8 +175,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,32 +273,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,70 +290,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,17 +305,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,31 +358,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,145 +472,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,6 +562,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -610,28 +611,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -653,30 +636,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -690,6 +649,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -698,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,148 +678,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,9 +832,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -879,9 +841,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -891,17 +850,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1238,72 +1191,72 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="$A31:$XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="47.75" customWidth="1"/>
     <col min="2" max="2" width="41.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="53.6296296296296" style="2" customWidth="1"/>
+    <col min="3" max="3" width="90.4444444444444" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.4" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="63" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="63" customHeight="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="44" customHeight="1" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="55.2" spans="1:4">
-      <c r="A5" s="7">
+    <row r="5" s="1" customFormat="1" ht="41.4" spans="1:4">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1311,63 +1264,60 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="55.2" spans="1:4">
-      <c r="A7" s="7">
+    <row r="7" s="1" customFormat="1" ht="27.6" spans="1:3">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1375,383 +1325,374 @@
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="41.4" spans="1:4">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="55.2" spans="1:4">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27.6" spans="1:3">
+      <c r="A14" s="9">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A17" s="12">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="69" spans="1:4">
-      <c r="A14" s="11">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A17" s="15">
-        <v>2</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="96.6" spans="1:4">
-      <c r="A18" s="15">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="41.4" spans="1:4">
+      <c r="A18" s="12">
         <v>1</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>23</v>
+      <c r="B18" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A19" s="15">
+      <c r="A19" s="12">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>24</v>
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A20" s="15">
+      <c r="A20" s="12">
         <v>1</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>24</v>
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="41.4" spans="1:4">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>2</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="B21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="27.6" spans="1:4">
+      <c r="A22" s="12">
+        <v>3</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="1" t="s">
+    </row>
+    <row r="23" s="1" customFormat="1" ht="27.6" spans="1:4">
+      <c r="A23" s="12">
+        <v>4</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A22" s="15">
+    <row r="24" s="1" customFormat="1" ht="27.6" spans="1:3">
+      <c r="A24" s="12">
+        <v>5</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A25" s="12">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A26" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15.6" spans="1:3">
+      <c r="A27" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A28" s="15">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="41.4" spans="1:4">
+      <c r="A29" s="15">
+        <v>2</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="27.6" spans="1:3">
+      <c r="A30" s="15">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="41.4" spans="1:4">
+      <c r="A31" s="15">
+        <v>1</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A23" s="15">
-        <v>4</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="32" s="1" customFormat="1" ht="27.6" spans="1:4">
+      <c r="A32" s="15">
+        <v>2</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="55.2" spans="1:4">
-      <c r="A24" s="15">
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="27.6" spans="1:4">
+      <c r="A33" s="15">
+        <v>3</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="27.6" spans="1:4">
+      <c r="A34" s="15">
+        <v>4</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="27.6" spans="1:4">
+      <c r="A35" s="15">
         <v>5</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A25" s="15">
+      <c r="B35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="41.4" spans="1:4">
+      <c r="A36" s="15">
         <v>6</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A26" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="15.6" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="B36" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="27.6" spans="1:4">
+      <c r="A37" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A28" s="19">
-        <v>2</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="20" t="s">
+      <c r="B37" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="27.6" spans="1:4">
+      <c r="A38" s="15">
         <v>8</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="124.2" spans="1:4">
-      <c r="A29" s="19">
-        <v>2</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="55.2" spans="1:4">
-      <c r="A30" s="19">
-        <v>1</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="41.4" spans="1:4">
-      <c r="A31" s="19">
-        <v>1</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A32" s="19">
-        <v>2</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A33" s="19">
-        <v>3</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="B38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A34" s="19">
-        <v>4</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A35" s="19">
-        <v>5</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="41.4" spans="1:4">
-      <c r="A36" s="19">
-        <v>6</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A37" s="19">
-        <v>7</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="27.6" spans="1:4">
-      <c r="A38" s="19">
-        <v>8</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
